--- a/curation/draft/collection/collection_specialization_QRS_TTS.xlsx
+++ b/curation/draft/collection/collection_specialization_QRS_TTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdisc-my.sharepoint.com/personal/dkottig_cdisc_org/Documents/01_BC/01_BC_Build/01_eCRF/QRS/TTS_LZZT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{78DA25EC-0D12-4279-8ADF-D8AD59F6328D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88E3D2BD-F353-054E-9E8B-4815091AC5EB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56437DDB-565C-3C4C-ACDC-3599766CF077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="4140" windowWidth="29900" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
   <si>
     <t>package_date</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>derivation_description</t>
+  </si>
+  <si>
+    <t>QSDAT</t>
   </si>
 </sst>
 </file>
@@ -433,10 +436,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -726,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -963,10 +962,10 @@
         <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>45</v>
@@ -1387,7 +1386,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="127">
+    <row r="10" spans="1:36" ht="160" customHeight="1">
       <c r="B10" s="5" t="s">
         <v>80</v>
       </c>

--- a/curation/draft/collection/collection_specialization_QRS_TTS.xlsx
+++ b/curation/draft/collection/collection_specialization_QRS_TTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56437DDB-565C-3C4C-ACDC-3599766CF077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFC5140-A605-D449-8F89-B26CF4D75D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="4140" windowWidth="29900" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="94">
   <si>
     <t>package_date</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>QSDAT</t>
+  </si>
+  <si>
+    <t>C82515</t>
   </si>
 </sst>
 </file>
@@ -725,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -967,8 +970,8 @@
       <c r="N3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>45</v>
+      <c r="O3" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>66</v>

--- a/curation/draft/collection/collection_specialization_QRS_TTS.xlsx
+++ b/curation/draft/collection/collection_specialization_QRS_TTS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagmarkottig/COSMoS/curation/draft/collection/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFC5140-A605-D449-8F89-B26CF4D75D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD9BCC-0089-4415-BE27-5B5F0C0D6F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="4140" windowWidth="29900" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Collection_QS_TTS" sheetId="1" r:id="rId1"/>
+    <sheet name="Collection_QRS_TTS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_QS_TTS!$A$1:$AJ$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Collection_QRS_TTS!$A$1:$AJ$11</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
@@ -274,11 +274,6 @@
     <t>PATCHSURVEYACCEPTABILITY</t>
   </si>
   <si>
-    <t>Based on the experience of applying and wearing this patch, if the patient were prescribed a drug for
-Alzheimer's disease and was given the choice of this patch or an oral pill given twice daily (assume
-that both formulations are equally effective), would you (the caregiver)</t>
-  </si>
-  <si>
     <t>Insist that the patient receive an oral pill;Prefer that the patient receive an oral pill;Have no preference (neutral) for an oral or patch formulation;Prefer that the patient receive a patch;Insist that the patient receive a patch</t>
   </si>
   <si>
@@ -307,13 +302,16 @@
   </si>
   <si>
     <t>C82515</t>
+  </si>
+  <si>
+    <t>Based on the experience of applying and wearing this patch, if the patient were prescribed a drug for Alzheimer's disease and was given the choice of this patch or an oral pill given twice daily (assume that both formulations are equally effective), would you (the caregiver)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,50 +726,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="35.1640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.33203125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.1640625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="58.6640625" style="2" customWidth="1"/>
-    <col min="35" max="35" width="18.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.83203125" style="2"/>
+    <col min="12" max="12" width="30.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="35.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.140625" style="2" customWidth="1"/>
+    <col min="34" max="34" width="58.7109375" style="2" customWidth="1"/>
+    <col min="35" max="35" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="16">
+    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>10</v>
@@ -842,10 +840,10 @@
         <v>21</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>22</v>
@@ -881,7 +879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="32">
+    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
@@ -896,7 +894,7 @@
         <v>40</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="2">
         <v>360</v>
@@ -941,7 +939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="16">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
@@ -956,7 +954,7 @@
         <v>40</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K3" s="2">
         <v>360</v>
@@ -965,13 +963,13 @@
         <v>41</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>66</v>
@@ -996,7 +994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="32">
+    <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>53</v>
       </c>
@@ -1061,7 +1059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="32">
+    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
@@ -1127,7 +1125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="16">
+    <row r="6" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="16">
+    <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1258,7 +1256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="32">
+    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
@@ -1323,7 +1321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="32">
+    <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>71</v>
       </c>
@@ -1389,7 +1387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="160" customHeight="1">
+    <row r="10" spans="1:36" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
@@ -1415,7 +1413,7 @@
         <v>81</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>58</v>
@@ -1424,7 +1422,7 @@
         <v>61</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="R10" s="2">
         <v>1</v>
@@ -1439,10 +1437,10 @@
         <v>200</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC10" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>37</v>
@@ -1451,10 +1449,10 @@
         <v>60</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="32">
+    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
@@ -1481,7 +1479,7 @@
         <v>81</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>44</v>

--- a/curation/draft/collection/collection_specialization_QRS_TTS.xlsx
+++ b/curation/draft/collection/collection_specialization_QRS_TTS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\_new\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_github\cdisc-org\COSMoS\curation\draft\collection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62CD9BCC-0089-4415-BE27-5B5F0C0D6F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2370D7BC-FE6B-4FC4-A138-62D4C63D2EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="915" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Collection_QRS_TTS" sheetId="1" r:id="rId1"/>
@@ -726,50 +726,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.3984375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="2" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.265625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="35.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="19.28515625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.140625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="58.7109375" style="2" customWidth="1"/>
-    <col min="35" max="35" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="13" style="4" customWidth="1"/>
+    <col min="12" max="12" width="30.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.73046875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="35.1328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="19.265625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="23.265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.1328125" style="2" customWidth="1"/>
+    <col min="34" max="34" width="58.73046875" style="2" customWidth="1"/>
+    <col min="35" max="35" width="18.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="19.1328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="8.86328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>88</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
@@ -896,7 +896,7 @@
       <c r="H2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>360</v>
       </c>
       <c r="L2" s="6" t="s">
@@ -939,7 +939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
@@ -956,7 +956,7 @@
       <c r="H3" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="4">
         <v>360</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -994,7 +994,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>53</v>
       </c>
@@ -1013,7 +1013,7 @@
       <c r="H4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="4">
         <v>360</v>
       </c>
       <c r="L4" s="6" t="s">
@@ -1059,7 +1059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="H5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="4">
         <v>360</v>
       </c>
       <c r="L5" s="6" t="s">
@@ -1125,7 +1125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>55</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="H6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <v>360</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -1190,7 +1190,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
         <v>55</v>
       </c>
@@ -1210,7 +1210,7 @@
       <c r="H7" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="4">
         <v>360</v>
       </c>
       <c r="L7" s="6" t="s">
@@ -1256,7 +1256,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
         <v>71</v>
       </c>
@@ -1275,7 +1275,7 @@
       <c r="H8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="4">
         <v>360</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -1321,7 +1321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
         <v>71</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="H9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="4">
         <v>360</v>
       </c>
       <c r="L9" s="6" t="s">
@@ -1387,7 +1387,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="159.94999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
         <v>80</v>
       </c>
@@ -1406,7 +1406,7 @@
       <c r="H10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="4">
         <v>360</v>
       </c>
       <c r="L10" s="6" t="s">
@@ -1452,7 +1452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
         <v>80</v>
       </c>
@@ -1472,7 +1472,7 @@
       <c r="H11" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="4">
         <v>360</v>
       </c>
       <c r="L11" s="6" t="s">
